--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cube8\practice-site\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cube8\practice-site\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798DA055-37AB-439B-BC5B-8487BEA7D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A7DD55-824D-42DF-A6E5-687091D98DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1830" windowWidth="21600" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="615" windowWidth="16620" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>banner-delivery.jpg</t>
+  </si>
+  <si>
+    <t>news1.jpg</t>
+  </si>
+  <si>
+    <t>Открытие нового магазина</t>
+  </si>
+  <si>
+    <t>Открытие нового магазина «Южный» по адресу: г. Москва, пр-т Южная, 5. Время работы: 09:00 — 22:00. Без выходных. Ждем вас!</t>
+  </si>
+  <si>
+    <t>2+1.jpg</t>
+  </si>
+  <si>
+    <t>Получи подарок</t>
+  </si>
+  <si>
+    <t>Купи два товара с категории элеткротовары и получи подарок к новому году.</t>
   </si>
 </sst>
 </file>
@@ -384,16 +402,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,6 +471,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
